--- a/Data/What do you like_analysis.xlsx
+++ b/Data/What do you like_analysis.xlsx
@@ -149,13 +149,13 @@
     <t>Samsung Galaxy A51</t>
   </si>
   <si>
+    <t>iPhone SE 2020</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20</t>
+  </si>
+  <si>
     <t>iPhone 11 Pro</t>
-  </si>
-  <si>
-    <t>iPhone SE 2020</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Note 20</t>
   </si>
   <si>
     <t>iPhone XS</t>
@@ -241,8 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -556,29 +557,29 @@
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -657,7 +658,7 @@
         <v>51</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -709,7 +710,7 @@
         <v>52</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -735,7 +736,7 @@
         <v>52</v>
       </c>
       <c r="H7">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -752,13 +753,13 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -778,13 +779,13 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -804,7 +805,7 @@
         <v>52</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -824,7 +825,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -867,13 +868,13 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -887,13 +888,13 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -913,7 +914,7 @@
         <v>51</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -933,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
@@ -956,13 +957,13 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1011,7 +1012,7 @@
         <v>52</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1022,13 +1023,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1039,7 +1040,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
         <v>51</v>
@@ -1056,7 +1057,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -1079,7 +1080,7 @@
         <v>51</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1096,7 +1097,7 @@
         <v>50</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1113,7 +1114,7 @@
         <v>49</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1130,7 +1131,7 @@
         <v>51</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1164,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1175,7 +1176,7 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>52</v>
@@ -1199,28 +1200,28 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1299,7 +1300,7 @@
         <v>51</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1351,7 +1352,7 @@
         <v>52</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1377,7 +1378,7 @@
         <v>52</v>
       </c>
       <c r="H7">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1394,13 +1395,13 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1420,13 +1421,13 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1446,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1466,7 +1467,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1509,13 +1510,13 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1529,13 +1530,13 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1555,7 +1556,7 @@
         <v>51</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1575,7 +1576,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
@@ -1598,13 +1599,13 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1653,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1664,13 +1665,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1681,7 +1682,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
         <v>51</v>
@@ -1698,7 +1699,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -1721,7 +1722,7 @@
         <v>51</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1738,7 +1739,7 @@
         <v>50</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1755,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1772,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1806,7 +1807,7 @@
         <v>54</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1817,7 +1818,7 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>52</v>
